--- a/data/naft_data_2.xlsx
+++ b/data/naft_data_2.xlsx
@@ -89,9 +89,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="0.00"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -194,7 +193,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -223,11 +222,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -308,14 +303,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:U124"/>
+  <dimension ref="A1:U113"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="true" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B104" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D107" activeCellId="0" sqref="D107"/>
+      <selection pane="bottomLeft" activeCell="A104" activeCellId="0" sqref="A104"/>
+      <selection pane="bottomRight" activeCell="C131" activeCellId="0" sqref="C131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.4296875" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -335,12 +330,12 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="9.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="26.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="15.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="20.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="20.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="22.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="21.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="27.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="18.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="19.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="19.82"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="18.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -443,6 +438,26 @@
       <c r="A3" s="6" t="n">
         <v>2</v>
       </c>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="7"/>
     </row>
     <row r="4" customFormat="false" ht="18.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="n">
@@ -487,9 +502,28 @@
       <c r="A5" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="P5" s="1" t="n">
-        <v>1</v>
-      </c>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="7"/>
     </row>
     <row r="6" customFormat="false" ht="18.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="n">
@@ -520,15 +554,32 @@
       <c r="A7" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="F7" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K7" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="P7" s="1" t="n">
-        <v>1</v>
-      </c>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="7"/>
+      <c r="T7" s="7"/>
+      <c r="U7" s="7"/>
     </row>
     <row r="8" customFormat="false" ht="18.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="n">
@@ -569,24 +620,38 @@
       <c r="A9" s="6" t="n">
         <v>8</v>
       </c>
-      <c r="F9" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K9" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="P9" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q9" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="S9" s="1" t="n">
-        <v>1</v>
-      </c>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="R9" s="7"/>
+      <c r="S9" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="T9" s="7"/>
+      <c r="U9" s="7"/>
     </row>
     <row r="10" customFormat="false" ht="18.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="n">
@@ -617,15 +682,32 @@
       <c r="A11" s="6" t="n">
         <v>10</v>
       </c>
-      <c r="F11" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K11" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="P11" s="1" t="n">
-        <v>1</v>
-      </c>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="7"/>
+      <c r="S11" s="7"/>
+      <c r="T11" s="7"/>
+      <c r="U11" s="7"/>
     </row>
     <row r="12" customFormat="false" ht="18.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="n">
@@ -656,15 +738,32 @@
       <c r="A13" s="6" t="n">
         <v>12</v>
       </c>
-      <c r="F13" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H13" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K13" s="1" t="n">
-        <v>1</v>
-      </c>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="7"/>
+      <c r="S13" s="7"/>
+      <c r="T13" s="7"/>
+      <c r="U13" s="7"/>
     </row>
     <row r="14" customFormat="false" ht="18.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="n">
@@ -707,6 +806,26 @@
       <c r="A15" s="6" t="n">
         <v>14</v>
       </c>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="7"/>
+      <c r="S15" s="7"/>
+      <c r="T15" s="7"/>
+      <c r="U15" s="7"/>
     </row>
     <row r="16" customFormat="false" ht="18.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="n">
@@ -745,18 +864,34 @@
       <c r="A17" s="6" t="n">
         <v>16</v>
       </c>
-      <c r="F17" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H17" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K17" s="1" t="n">
-        <v>1</v>
-      </c>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="I17" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="7"/>
+      <c r="Q17" s="7"/>
+      <c r="R17" s="7"/>
+      <c r="S17" s="7"/>
+      <c r="T17" s="7"/>
+      <c r="U17" s="7"/>
     </row>
     <row r="18" customFormat="false" ht="18.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="4" t="n">
@@ -795,15 +930,32 @@
       <c r="A19" s="6" t="n">
         <v>18</v>
       </c>
-      <c r="E19" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H19" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="T19" s="1" t="n">
-        <v>1</v>
-      </c>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="7"/>
+      <c r="Q19" s="7"/>
+      <c r="R19" s="7"/>
+      <c r="S19" s="7"/>
+      <c r="T19" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="U19" s="7"/>
     </row>
     <row r="20" customFormat="false" ht="18.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="4" t="n">
@@ -844,6 +996,26 @@
       <c r="A21" s="6" t="n">
         <v>20</v>
       </c>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="7"/>
+      <c r="Q21" s="7"/>
+      <c r="R21" s="7"/>
+      <c r="S21" s="7"/>
+      <c r="T21" s="7"/>
+      <c r="U21" s="7"/>
     </row>
     <row r="22" customFormat="false" ht="18.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="4" t="n">
@@ -884,18 +1056,34 @@
       <c r="A23" s="6" t="n">
         <v>22</v>
       </c>
-      <c r="F23" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H23" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K23" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q23" s="1" t="n">
-        <v>1</v>
-      </c>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="7"/>
+      <c r="O23" s="7"/>
+      <c r="P23" s="7"/>
+      <c r="Q23" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="R23" s="7"/>
+      <c r="S23" s="7"/>
+      <c r="T23" s="7"/>
+      <c r="U23" s="7"/>
     </row>
     <row r="24" customFormat="false" ht="18.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="4" t="n">
@@ -938,18 +1126,34 @@
       <c r="A25" s="6" t="n">
         <v>24</v>
       </c>
-      <c r="F25" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H25" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K25" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q25" s="1" t="n">
-        <v>1</v>
-      </c>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
+      <c r="N25" s="7"/>
+      <c r="O25" s="7"/>
+      <c r="P25" s="7"/>
+      <c r="Q25" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="R25" s="7"/>
+      <c r="S25" s="7"/>
+      <c r="T25" s="7"/>
+      <c r="U25" s="7"/>
     </row>
     <row r="26" customFormat="false" ht="18.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="4" t="n">
@@ -990,27 +1194,40 @@
       <c r="A27" s="6" t="n">
         <v>26</v>
       </c>
-      <c r="D27" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E27" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F27" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H27" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K27" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="R27" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="T27" s="1" t="n">
-        <v>1</v>
-      </c>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E27" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F27" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" s="7"/>
+      <c r="M27" s="7"/>
+      <c r="N27" s="7"/>
+      <c r="O27" s="7"/>
+      <c r="P27" s="7"/>
+      <c r="Q27" s="7"/>
+      <c r="R27" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="S27" s="7"/>
+      <c r="T27" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="U27" s="7"/>
     </row>
     <row r="28" customFormat="false" ht="18.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="4" t="n">
@@ -1049,12 +1266,30 @@
       <c r="A29" s="6" t="n">
         <v>28</v>
       </c>
-      <c r="L29" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" s="1" t="n">
-        <v>1</v>
-      </c>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" s="7"/>
+      <c r="N29" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="O29" s="7"/>
+      <c r="P29" s="7"/>
+      <c r="Q29" s="7"/>
+      <c r="R29" s="7"/>
+      <c r="S29" s="7"/>
+      <c r="T29" s="7"/>
+      <c r="U29" s="7"/>
     </row>
     <row r="30" customFormat="false" ht="18.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="4" t="n">
@@ -1095,6 +1330,26 @@
       <c r="A31" s="6" t="n">
         <v>30</v>
       </c>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="7"/>
+      <c r="L31" s="7"/>
+      <c r="M31" s="7"/>
+      <c r="N31" s="7"/>
+      <c r="O31" s="7"/>
+      <c r="P31" s="7"/>
+      <c r="Q31" s="7"/>
+      <c r="R31" s="7"/>
+      <c r="S31" s="7"/>
+      <c r="T31" s="7"/>
+      <c r="U31" s="7"/>
     </row>
     <row r="32" customFormat="false" ht="18.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="4" t="n">
@@ -1137,24 +1392,38 @@
       <c r="A33" s="6" t="n">
         <v>32</v>
       </c>
-      <c r="E33" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F33" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H33" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K33" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="P33" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q33" s="1" t="n">
-        <v>1</v>
-      </c>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F33" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="I33" s="7"/>
+      <c r="J33" s="7"/>
+      <c r="K33" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" s="7"/>
+      <c r="M33" s="7"/>
+      <c r="N33" s="7"/>
+      <c r="O33" s="7"/>
+      <c r="P33" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q33" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="R33" s="7"/>
+      <c r="S33" s="7"/>
+      <c r="T33" s="7"/>
+      <c r="U33" s="7"/>
     </row>
     <row r="34" customFormat="false" ht="18.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="4" t="n">
@@ -1185,18 +1454,34 @@
       <c r="A35" s="6" t="n">
         <v>34</v>
       </c>
-      <c r="F35" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H35" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K35" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q35" s="1" t="n">
-        <v>1</v>
-      </c>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="I35" s="7"/>
+      <c r="J35" s="7"/>
+      <c r="K35" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" s="7"/>
+      <c r="M35" s="7"/>
+      <c r="N35" s="7"/>
+      <c r="O35" s="7"/>
+      <c r="P35" s="7"/>
+      <c r="Q35" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="R35" s="7"/>
+      <c r="S35" s="7"/>
+      <c r="T35" s="7"/>
+      <c r="U35" s="7"/>
     </row>
     <row r="36" customFormat="false" ht="18.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="4" t="n">
@@ -1241,22 +1526,36 @@
       <c r="A37" s="6" t="n">
         <v>36</v>
       </c>
-      <c r="C37" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="J37" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="L37" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="O37" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="U37" s="1" t="n">
+      <c r="B37" s="7"/>
+      <c r="C37" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J37" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="K37" s="7"/>
+      <c r="L37" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" s="7"/>
+      <c r="N37" s="7"/>
+      <c r="O37" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="P37" s="7"/>
+      <c r="Q37" s="7"/>
+      <c r="R37" s="7"/>
+      <c r="S37" s="7"/>
+      <c r="T37" s="7"/>
+      <c r="U37" s="7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1297,18 +1596,34 @@
       <c r="A39" s="6" t="n">
         <v>38</v>
       </c>
-      <c r="B39" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G39" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="J39" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" s="1" t="n">
-        <v>1</v>
-      </c>
+      <c r="B39" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H39" s="7"/>
+      <c r="I39" s="7"/>
+      <c r="J39" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="K39" s="7"/>
+      <c r="L39" s="7"/>
+      <c r="M39" s="7"/>
+      <c r="N39" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="O39" s="7"/>
+      <c r="P39" s="7"/>
+      <c r="Q39" s="7"/>
+      <c r="R39" s="7"/>
+      <c r="S39" s="7"/>
+      <c r="T39" s="7"/>
+      <c r="U39" s="7"/>
     </row>
     <row r="40" customFormat="false" ht="18.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="4" t="n">
@@ -1349,24 +1664,38 @@
       <c r="A41" s="6" t="n">
         <v>40</v>
       </c>
-      <c r="D41" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E41" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="O41" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="R41" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="T41" s="1" t="n">
-        <v>1</v>
-      </c>
+      <c r="B41" s="7"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E41" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="7"/>
+      <c r="J41" s="7"/>
+      <c r="K41" s="7"/>
+      <c r="L41" s="7"/>
+      <c r="M41" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N41" s="7"/>
+      <c r="O41" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="P41" s="7"/>
+      <c r="Q41" s="7"/>
+      <c r="R41" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="S41" s="7"/>
+      <c r="T41" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="U41" s="7"/>
     </row>
     <row r="42" customFormat="false" ht="18.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="4" t="n">
@@ -1403,19 +1732,34 @@
       <c r="A43" s="6" t="n">
         <v>42</v>
       </c>
-      <c r="I43" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="R43" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="S43" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="T43" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="U43" s="1" t="n">
+      <c r="B43" s="7"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J43" s="7"/>
+      <c r="K43" s="7"/>
+      <c r="L43" s="7"/>
+      <c r="M43" s="7"/>
+      <c r="N43" s="7"/>
+      <c r="O43" s="7"/>
+      <c r="P43" s="7"/>
+      <c r="Q43" s="7"/>
+      <c r="R43" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="S43" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="T43" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="U43" s="7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1454,24 +1798,38 @@
       <c r="A45" s="6" t="n">
         <v>44</v>
       </c>
-      <c r="C45" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E45" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F45" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="I45" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="O45" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="T45" s="1" t="n">
-        <v>1</v>
-      </c>
+      <c r="B45" s="7"/>
+      <c r="C45" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F45" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G45" s="7"/>
+      <c r="H45" s="7"/>
+      <c r="I45" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J45" s="7"/>
+      <c r="K45" s="7"/>
+      <c r="L45" s="7"/>
+      <c r="M45" s="7"/>
+      <c r="N45" s="7"/>
+      <c r="O45" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="P45" s="7"/>
+      <c r="Q45" s="7"/>
+      <c r="R45" s="7"/>
+      <c r="S45" s="7"/>
+      <c r="T45" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="U45" s="7"/>
     </row>
     <row r="46" customFormat="false" ht="18.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="4" t="n">
@@ -1514,24 +1872,38 @@
       <c r="A47" s="6" t="n">
         <v>46</v>
       </c>
-      <c r="D47" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="I47" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="L47" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="R47" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="T47" s="1" t="n">
-        <v>1</v>
-      </c>
+      <c r="B47" s="7"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="7"/>
+      <c r="H47" s="7"/>
+      <c r="I47" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J47" s="7"/>
+      <c r="K47" s="7"/>
+      <c r="L47" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N47" s="7"/>
+      <c r="O47" s="7"/>
+      <c r="P47" s="7"/>
+      <c r="Q47" s="7"/>
+      <c r="R47" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="S47" s="7"/>
+      <c r="T47" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="U47" s="7"/>
     </row>
     <row r="48" customFormat="false" ht="18.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="4" t="n">
@@ -1572,21 +1944,36 @@
       <c r="A49" s="6" t="n">
         <v>48</v>
       </c>
-      <c r="D49" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E49" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="R49" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="T49" s="1" t="n">
-        <v>1</v>
-      </c>
+      <c r="B49" s="7"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E49" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F49" s="7"/>
+      <c r="G49" s="7"/>
+      <c r="H49" s="7"/>
+      <c r="I49" s="7"/>
+      <c r="J49" s="7"/>
+      <c r="K49" s="7"/>
+      <c r="L49" s="7"/>
+      <c r="M49" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N49" s="7"/>
+      <c r="O49" s="7"/>
+      <c r="P49" s="7"/>
+      <c r="Q49" s="7"/>
+      <c r="R49" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="S49" s="7"/>
+      <c r="T49" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="U49" s="7"/>
     </row>
     <row r="50" customFormat="false" ht="18.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="4" t="n">
@@ -1629,21 +2016,36 @@
       <c r="A51" s="6" t="n">
         <v>50</v>
       </c>
-      <c r="D51" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E51" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="R51" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="T51" s="1" t="n">
-        <v>1</v>
-      </c>
+      <c r="B51" s="7"/>
+      <c r="C51" s="7"/>
+      <c r="D51" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E51" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F51" s="7"/>
+      <c r="G51" s="7"/>
+      <c r="H51" s="7"/>
+      <c r="I51" s="7"/>
+      <c r="J51" s="7"/>
+      <c r="K51" s="7"/>
+      <c r="L51" s="7"/>
+      <c r="M51" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N51" s="7"/>
+      <c r="O51" s="7"/>
+      <c r="P51" s="7"/>
+      <c r="Q51" s="7"/>
+      <c r="R51" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="S51" s="7"/>
+      <c r="T51" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="U51" s="7"/>
     </row>
     <row r="52" customFormat="false" ht="18.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="4" t="n">
@@ -1686,24 +2088,38 @@
       <c r="A53" s="6" t="n">
         <v>52</v>
       </c>
-      <c r="D53" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E53" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="O53" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="R53" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="T53" s="1" t="n">
-        <v>1</v>
-      </c>
+      <c r="B53" s="7"/>
+      <c r="C53" s="7"/>
+      <c r="D53" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E53" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F53" s="7"/>
+      <c r="G53" s="7"/>
+      <c r="H53" s="7"/>
+      <c r="I53" s="7"/>
+      <c r="J53" s="7"/>
+      <c r="K53" s="7"/>
+      <c r="L53" s="7"/>
+      <c r="M53" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N53" s="7"/>
+      <c r="O53" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="P53" s="7"/>
+      <c r="Q53" s="7"/>
+      <c r="R53" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="S53" s="7"/>
+      <c r="T53" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="U53" s="7"/>
     </row>
     <row r="54" customFormat="false" ht="18.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="4" t="n">
@@ -1744,21 +2160,36 @@
       <c r="A55" s="6" t="n">
         <v>54</v>
       </c>
-      <c r="D55" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E55" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="R55" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="T55" s="1" t="n">
-        <v>1</v>
-      </c>
+      <c r="B55" s="7"/>
+      <c r="C55" s="7"/>
+      <c r="D55" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E55" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F55" s="7"/>
+      <c r="G55" s="7"/>
+      <c r="H55" s="7"/>
+      <c r="I55" s="7"/>
+      <c r="J55" s="7"/>
+      <c r="K55" s="7"/>
+      <c r="L55" s="7"/>
+      <c r="M55" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N55" s="7"/>
+      <c r="O55" s="7"/>
+      <c r="P55" s="7"/>
+      <c r="Q55" s="7"/>
+      <c r="R55" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="S55" s="7"/>
+      <c r="T55" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="U55" s="7"/>
     </row>
     <row r="56" customFormat="false" ht="18.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="4" t="n">
@@ -1799,18 +2230,34 @@
       <c r="A57" s="6" t="n">
         <v>56</v>
       </c>
-      <c r="C57" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D57" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="I57" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="L57" s="1" t="n">
-        <v>1</v>
-      </c>
+      <c r="B57" s="7"/>
+      <c r="C57" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D57" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E57" s="7"/>
+      <c r="F57" s="7"/>
+      <c r="G57" s="7"/>
+      <c r="H57" s="7"/>
+      <c r="I57" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J57" s="7"/>
+      <c r="K57" s="7"/>
+      <c r="L57" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" s="7"/>
+      <c r="N57" s="7"/>
+      <c r="O57" s="7"/>
+      <c r="P57" s="7"/>
+      <c r="Q57" s="7"/>
+      <c r="R57" s="7"/>
+      <c r="S57" s="7"/>
+      <c r="T57" s="7"/>
+      <c r="U57" s="7"/>
     </row>
     <row r="58" customFormat="false" ht="18.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="4" t="n">
@@ -1851,24 +2298,38 @@
       <c r="A59" s="6" t="n">
         <v>58</v>
       </c>
-      <c r="D59" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E59" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="O59" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="R59" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="T59" s="1" t="n">
-        <v>1</v>
-      </c>
+      <c r="B59" s="7"/>
+      <c r="C59" s="7"/>
+      <c r="D59" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E59" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F59" s="7"/>
+      <c r="G59" s="7"/>
+      <c r="H59" s="7"/>
+      <c r="I59" s="7"/>
+      <c r="J59" s="7"/>
+      <c r="K59" s="7"/>
+      <c r="L59" s="7"/>
+      <c r="M59" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N59" s="7"/>
+      <c r="O59" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="P59" s="7"/>
+      <c r="Q59" s="7"/>
+      <c r="R59" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="S59" s="7"/>
+      <c r="T59" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="U59" s="7"/>
     </row>
     <row r="60" customFormat="false" ht="18.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="4" t="n">
@@ -1911,18 +2372,34 @@
       <c r="A61" s="6" t="n">
         <v>60</v>
       </c>
-      <c r="B61" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G61" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="J61" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" s="1" t="n">
-        <v>1</v>
-      </c>
+      <c r="B61" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C61" s="7"/>
+      <c r="D61" s="7"/>
+      <c r="E61" s="7"/>
+      <c r="F61" s="7"/>
+      <c r="G61" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H61" s="7"/>
+      <c r="I61" s="7"/>
+      <c r="J61" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="K61" s="7"/>
+      <c r="L61" s="7"/>
+      <c r="M61" s="7"/>
+      <c r="N61" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="O61" s="7"/>
+      <c r="P61" s="7"/>
+      <c r="Q61" s="7"/>
+      <c r="R61" s="7"/>
+      <c r="S61" s="7"/>
+      <c r="T61" s="7"/>
+      <c r="U61" s="7"/>
     </row>
     <row r="62" customFormat="false" ht="18.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="4" t="n">
@@ -1959,15 +2436,32 @@
       <c r="A63" s="6" t="n">
         <v>62</v>
       </c>
-      <c r="G63" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="J63" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" s="1" t="n">
-        <v>1</v>
-      </c>
+      <c r="B63" s="7"/>
+      <c r="C63" s="7"/>
+      <c r="D63" s="7"/>
+      <c r="E63" s="7"/>
+      <c r="F63" s="7"/>
+      <c r="G63" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H63" s="7"/>
+      <c r="I63" s="7"/>
+      <c r="J63" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="K63" s="7"/>
+      <c r="L63" s="7"/>
+      <c r="M63" s="7"/>
+      <c r="N63" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="O63" s="7"/>
+      <c r="P63" s="7"/>
+      <c r="Q63" s="7"/>
+      <c r="R63" s="7"/>
+      <c r="S63" s="7"/>
+      <c r="T63" s="7"/>
+      <c r="U63" s="7"/>
     </row>
     <row r="64" customFormat="false" ht="18.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="4" t="n">
@@ -2008,15 +2502,32 @@
       <c r="A65" s="6" t="n">
         <v>64</v>
       </c>
-      <c r="C65" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="I65" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="L65" s="1" t="n">
-        <v>1</v>
-      </c>
+      <c r="B65" s="7"/>
+      <c r="C65" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D65" s="7"/>
+      <c r="E65" s="7"/>
+      <c r="F65" s="7"/>
+      <c r="G65" s="7"/>
+      <c r="H65" s="7"/>
+      <c r="I65" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J65" s="7"/>
+      <c r="K65" s="7"/>
+      <c r="L65" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" s="7"/>
+      <c r="N65" s="7"/>
+      <c r="O65" s="7"/>
+      <c r="P65" s="7"/>
+      <c r="Q65" s="7"/>
+      <c r="R65" s="7"/>
+      <c r="S65" s="7"/>
+      <c r="T65" s="7"/>
+      <c r="U65" s="7"/>
     </row>
     <row r="66" customFormat="false" ht="18.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="4" t="n">
@@ -2057,22 +2568,36 @@
       <c r="A67" s="6" t="n">
         <v>66</v>
       </c>
-      <c r="C67" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G67" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="L67" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="O67" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="S67" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="U67" s="1" t="n">
+      <c r="B67" s="7"/>
+      <c r="C67" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D67" s="7"/>
+      <c r="E67" s="7"/>
+      <c r="F67" s="7"/>
+      <c r="G67" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H67" s="7"/>
+      <c r="I67" s="7"/>
+      <c r="J67" s="7"/>
+      <c r="K67" s="7"/>
+      <c r="L67" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" s="7"/>
+      <c r="N67" s="7"/>
+      <c r="O67" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="P67" s="7"/>
+      <c r="Q67" s="7"/>
+      <c r="R67" s="7"/>
+      <c r="S67" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="T67" s="7"/>
+      <c r="U67" s="7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2115,22 +2640,36 @@
       <c r="A69" s="6" t="n">
         <v>68</v>
       </c>
-      <c r="C69" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="I69" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="L69" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="O69" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="S69" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="U69" s="1" t="n">
+      <c r="B69" s="7"/>
+      <c r="C69" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D69" s="7"/>
+      <c r="E69" s="7"/>
+      <c r="F69" s="7"/>
+      <c r="G69" s="7"/>
+      <c r="H69" s="7"/>
+      <c r="I69" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J69" s="7"/>
+      <c r="K69" s="7"/>
+      <c r="L69" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" s="7"/>
+      <c r="N69" s="7"/>
+      <c r="O69" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="P69" s="7"/>
+      <c r="Q69" s="7"/>
+      <c r="R69" s="7"/>
+      <c r="S69" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="T69" s="7"/>
+      <c r="U69" s="7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2175,19 +2714,34 @@
       <c r="A71" s="6" t="n">
         <v>70</v>
       </c>
-      <c r="B71" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G71" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="J71" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="O71" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="U71" s="1" t="n">
+      <c r="B71" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C71" s="7"/>
+      <c r="D71" s="7"/>
+      <c r="E71" s="7"/>
+      <c r="F71" s="7"/>
+      <c r="G71" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H71" s="7"/>
+      <c r="I71" s="7"/>
+      <c r="J71" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="K71" s="7"/>
+      <c r="L71" s="7"/>
+      <c r="M71" s="7"/>
+      <c r="N71" s="7"/>
+      <c r="O71" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="P71" s="7"/>
+      <c r="Q71" s="7"/>
+      <c r="R71" s="7"/>
+      <c r="S71" s="7"/>
+      <c r="T71" s="7"/>
+      <c r="U71" s="7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2230,15 +2784,32 @@
       <c r="A73" s="6" t="n">
         <v>72</v>
       </c>
-      <c r="B73" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G73" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="J73" s="1" t="n">
-        <v>1</v>
-      </c>
+      <c r="B73" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C73" s="7"/>
+      <c r="D73" s="7"/>
+      <c r="E73" s="7"/>
+      <c r="F73" s="7"/>
+      <c r="G73" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H73" s="7"/>
+      <c r="I73" s="7"/>
+      <c r="J73" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="K73" s="7"/>
+      <c r="L73" s="7"/>
+      <c r="M73" s="7"/>
+      <c r="N73" s="7"/>
+      <c r="O73" s="7"/>
+      <c r="P73" s="7"/>
+      <c r="Q73" s="7"/>
+      <c r="R73" s="7"/>
+      <c r="S73" s="7"/>
+      <c r="T73" s="7"/>
+      <c r="U73" s="7"/>
     </row>
     <row r="74" customFormat="false" ht="18.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="4" t="n">
@@ -2281,15 +2852,32 @@
       <c r="A75" s="6" t="n">
         <v>74</v>
       </c>
-      <c r="B75" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="J75" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" s="1" t="n">
-        <v>1</v>
-      </c>
+      <c r="B75" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C75" s="7"/>
+      <c r="D75" s="7"/>
+      <c r="E75" s="7"/>
+      <c r="F75" s="7"/>
+      <c r="G75" s="7"/>
+      <c r="H75" s="7"/>
+      <c r="I75" s="7"/>
+      <c r="J75" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="K75" s="7"/>
+      <c r="L75" s="7"/>
+      <c r="M75" s="7"/>
+      <c r="N75" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="O75" s="7"/>
+      <c r="P75" s="7"/>
+      <c r="Q75" s="7"/>
+      <c r="R75" s="7"/>
+      <c r="S75" s="7"/>
+      <c r="T75" s="7"/>
+      <c r="U75" s="7"/>
     </row>
     <row r="76" customFormat="false" ht="18.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="4" t="n">
@@ -2328,16 +2916,32 @@
       <c r="A77" s="6" t="n">
         <v>76</v>
       </c>
-      <c r="C77" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="J77" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="O77" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="U77" s="1" t="n">
+      <c r="B77" s="7"/>
+      <c r="C77" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D77" s="7"/>
+      <c r="E77" s="7"/>
+      <c r="F77" s="7"/>
+      <c r="G77" s="7"/>
+      <c r="H77" s="7"/>
+      <c r="I77" s="7"/>
+      <c r="J77" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="K77" s="7"/>
+      <c r="L77" s="7"/>
+      <c r="M77" s="7"/>
+      <c r="N77" s="7"/>
+      <c r="O77" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="P77" s="7"/>
+      <c r="Q77" s="7"/>
+      <c r="R77" s="7"/>
+      <c r="S77" s="7"/>
+      <c r="T77" s="7"/>
+      <c r="U77" s="7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2376,16 +2980,32 @@
       <c r="A79" s="6" t="n">
         <v>78</v>
       </c>
-      <c r="B79" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="L79" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="S79" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="U79" s="1" t="n">
+      <c r="B79" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C79" s="7"/>
+      <c r="D79" s="7"/>
+      <c r="E79" s="7"/>
+      <c r="F79" s="7"/>
+      <c r="G79" s="7"/>
+      <c r="H79" s="7"/>
+      <c r="I79" s="7"/>
+      <c r="J79" s="7"/>
+      <c r="K79" s="7"/>
+      <c r="L79" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" s="7"/>
+      <c r="N79" s="7"/>
+      <c r="O79" s="7"/>
+      <c r="P79" s="7"/>
+      <c r="Q79" s="7"/>
+      <c r="R79" s="7"/>
+      <c r="S79" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="T79" s="7"/>
+      <c r="U79" s="7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2428,22 +3048,36 @@
       <c r="A81" s="6" t="n">
         <v>80</v>
       </c>
-      <c r="C81" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="I81" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="L81" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="O81" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="S81" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="U81" s="1" t="n">
+      <c r="B81" s="7"/>
+      <c r="C81" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D81" s="7"/>
+      <c r="E81" s="7"/>
+      <c r="F81" s="7"/>
+      <c r="G81" s="7"/>
+      <c r="H81" s="7"/>
+      <c r="I81" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J81" s="7"/>
+      <c r="K81" s="7"/>
+      <c r="L81" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" s="7"/>
+      <c r="N81" s="7"/>
+      <c r="O81" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="P81" s="7"/>
+      <c r="Q81" s="7"/>
+      <c r="R81" s="7"/>
+      <c r="S81" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="T81" s="7"/>
+      <c r="U81" s="7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2482,19 +3116,34 @@
       <c r="A83" s="6" t="n">
         <v>82</v>
       </c>
-      <c r="C83" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="I83" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="L83" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="O83" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="U83" s="1" t="n">
+      <c r="B83" s="7"/>
+      <c r="C83" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D83" s="7"/>
+      <c r="E83" s="7"/>
+      <c r="F83" s="7"/>
+      <c r="G83" s="7"/>
+      <c r="H83" s="7"/>
+      <c r="I83" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J83" s="7"/>
+      <c r="K83" s="7"/>
+      <c r="L83" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" s="7"/>
+      <c r="N83" s="7"/>
+      <c r="O83" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="P83" s="7"/>
+      <c r="Q83" s="7"/>
+      <c r="R83" s="7"/>
+      <c r="S83" s="7"/>
+      <c r="T83" s="7"/>
+      <c r="U83" s="7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2539,16 +3188,32 @@
       <c r="A85" s="6" t="n">
         <v>84</v>
       </c>
-      <c r="C85" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="O85" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="S85" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="U85" s="1" t="n">
+      <c r="B85" s="7"/>
+      <c r="C85" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D85" s="7"/>
+      <c r="E85" s="7"/>
+      <c r="F85" s="7"/>
+      <c r="G85" s="7"/>
+      <c r="H85" s="7"/>
+      <c r="I85" s="7"/>
+      <c r="J85" s="7"/>
+      <c r="K85" s="7"/>
+      <c r="L85" s="7"/>
+      <c r="M85" s="7"/>
+      <c r="N85" s="7"/>
+      <c r="O85" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="P85" s="7"/>
+      <c r="Q85" s="7"/>
+      <c r="R85" s="7"/>
+      <c r="S85" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="T85" s="7"/>
+      <c r="U85" s="7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2591,22 +3256,36 @@
       <c r="A87" s="6" t="n">
         <v>86</v>
       </c>
-      <c r="C87" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="I87" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="L87" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="O87" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="S87" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="U87" s="1" t="n">
+      <c r="B87" s="7"/>
+      <c r="C87" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D87" s="7"/>
+      <c r="E87" s="7"/>
+      <c r="F87" s="7"/>
+      <c r="G87" s="7"/>
+      <c r="H87" s="7"/>
+      <c r="I87" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J87" s="7"/>
+      <c r="K87" s="7"/>
+      <c r="L87" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" s="7"/>
+      <c r="N87" s="7"/>
+      <c r="O87" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="P87" s="7"/>
+      <c r="Q87" s="7"/>
+      <c r="R87" s="7"/>
+      <c r="S87" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="T87" s="7"/>
+      <c r="U87" s="7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2649,15 +3328,32 @@
       <c r="A89" s="6" t="n">
         <v>88</v>
       </c>
-      <c r="B89" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="J89" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" s="1" t="n">
-        <v>1</v>
-      </c>
+      <c r="B89" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C89" s="7"/>
+      <c r="D89" s="7"/>
+      <c r="E89" s="7"/>
+      <c r="F89" s="7"/>
+      <c r="G89" s="7"/>
+      <c r="H89" s="7"/>
+      <c r="I89" s="7"/>
+      <c r="J89" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="K89" s="7"/>
+      <c r="L89" s="7"/>
+      <c r="M89" s="7"/>
+      <c r="N89" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="O89" s="7"/>
+      <c r="P89" s="7"/>
+      <c r="Q89" s="7"/>
+      <c r="R89" s="7"/>
+      <c r="S89" s="7"/>
+      <c r="T89" s="7"/>
+      <c r="U89" s="7"/>
     </row>
     <row r="90" customFormat="false" ht="18.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="4" t="n">
@@ -2696,18 +3392,34 @@
       <c r="A91" s="6" t="n">
         <v>90</v>
       </c>
-      <c r="B91" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G91" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="J91" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" s="1" t="n">
-        <v>1</v>
-      </c>
+      <c r="B91" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C91" s="7"/>
+      <c r="D91" s="7"/>
+      <c r="E91" s="7"/>
+      <c r="F91" s="7"/>
+      <c r="G91" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H91" s="7"/>
+      <c r="I91" s="7"/>
+      <c r="J91" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="K91" s="7"/>
+      <c r="L91" s="7"/>
+      <c r="M91" s="7"/>
+      <c r="N91" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="O91" s="7"/>
+      <c r="P91" s="7"/>
+      <c r="Q91" s="7"/>
+      <c r="R91" s="7"/>
+      <c r="S91" s="7"/>
+      <c r="T91" s="7"/>
+      <c r="U91" s="7"/>
     </row>
     <row r="92" customFormat="false" ht="18.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="4" t="n">
@@ -2738,18 +3450,34 @@
       <c r="A93" s="6" t="n">
         <v>92</v>
       </c>
-      <c r="B93" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G93" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="J93" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" s="1" t="n">
-        <v>1</v>
-      </c>
+      <c r="B93" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C93" s="7"/>
+      <c r="D93" s="7"/>
+      <c r="E93" s="7"/>
+      <c r="F93" s="7"/>
+      <c r="G93" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H93" s="7"/>
+      <c r="I93" s="7"/>
+      <c r="J93" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="K93" s="7"/>
+      <c r="L93" s="7"/>
+      <c r="M93" s="7"/>
+      <c r="N93" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="O93" s="7"/>
+      <c r="P93" s="7"/>
+      <c r="Q93" s="7"/>
+      <c r="R93" s="7"/>
+      <c r="S93" s="7"/>
+      <c r="T93" s="7"/>
+      <c r="U93" s="7"/>
     </row>
     <row r="94" customFormat="false" ht="18.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="4" t="n">
@@ -2788,18 +3516,34 @@
       <c r="A95" s="6" t="n">
         <v>94</v>
       </c>
-      <c r="B95" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G95" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="J95" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" s="1" t="n">
-        <v>1</v>
-      </c>
+      <c r="B95" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C95" s="7"/>
+      <c r="D95" s="7"/>
+      <c r="E95" s="7"/>
+      <c r="F95" s="7"/>
+      <c r="G95" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H95" s="7"/>
+      <c r="I95" s="7"/>
+      <c r="J95" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="K95" s="7"/>
+      <c r="L95" s="7"/>
+      <c r="M95" s="7"/>
+      <c r="N95" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="O95" s="7"/>
+      <c r="P95" s="7"/>
+      <c r="Q95" s="7"/>
+      <c r="R95" s="7"/>
+      <c r="S95" s="7"/>
+      <c r="T95" s="7"/>
+      <c r="U95" s="7"/>
     </row>
     <row r="96" customFormat="false" ht="18.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="4" t="n">
@@ -2838,18 +3582,34 @@
       <c r="A97" s="6" t="n">
         <v>96</v>
       </c>
-      <c r="B97" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G97" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="J97" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" s="1" t="n">
-        <v>1</v>
-      </c>
+      <c r="B97" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C97" s="7"/>
+      <c r="D97" s="7"/>
+      <c r="E97" s="7"/>
+      <c r="F97" s="7"/>
+      <c r="G97" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H97" s="7"/>
+      <c r="I97" s="7"/>
+      <c r="J97" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="K97" s="7"/>
+      <c r="L97" s="7"/>
+      <c r="M97" s="7"/>
+      <c r="N97" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="O97" s="7"/>
+      <c r="P97" s="7"/>
+      <c r="Q97" s="7"/>
+      <c r="R97" s="7"/>
+      <c r="S97" s="7"/>
+      <c r="T97" s="7"/>
+      <c r="U97" s="7"/>
     </row>
     <row r="98" customFormat="false" ht="18.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="4" t="n">
@@ -2888,6 +3648,26 @@
       <c r="A99" s="6" t="n">
         <v>98</v>
       </c>
+      <c r="B99" s="7"/>
+      <c r="C99" s="7"/>
+      <c r="D99" s="7"/>
+      <c r="E99" s="7"/>
+      <c r="F99" s="7"/>
+      <c r="G99" s="7"/>
+      <c r="H99" s="7"/>
+      <c r="I99" s="7"/>
+      <c r="J99" s="7"/>
+      <c r="K99" s="7"/>
+      <c r="L99" s="7"/>
+      <c r="M99" s="7"/>
+      <c r="N99" s="7"/>
+      <c r="O99" s="7"/>
+      <c r="P99" s="7"/>
+      <c r="Q99" s="7"/>
+      <c r="R99" s="7"/>
+      <c r="S99" s="7"/>
+      <c r="T99" s="7"/>
+      <c r="U99" s="7"/>
     </row>
     <row r="100" customFormat="false" ht="18.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="4" t="n">
@@ -2924,18 +3704,34 @@
       <c r="A101" s="6" t="n">
         <v>100</v>
       </c>
-      <c r="B101" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G101" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="J101" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" s="1" t="n">
-        <v>1</v>
-      </c>
+      <c r="B101" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C101" s="7"/>
+      <c r="D101" s="7"/>
+      <c r="E101" s="7"/>
+      <c r="F101" s="7"/>
+      <c r="G101" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H101" s="7"/>
+      <c r="I101" s="7"/>
+      <c r="J101" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="K101" s="7"/>
+      <c r="L101" s="7"/>
+      <c r="M101" s="7"/>
+      <c r="N101" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="O101" s="7"/>
+      <c r="P101" s="7"/>
+      <c r="Q101" s="7"/>
+      <c r="R101" s="7"/>
+      <c r="S101" s="7"/>
+      <c r="T101" s="7"/>
+      <c r="U101" s="7"/>
     </row>
     <row r="102" customFormat="false" ht="18.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="4" t="n">
@@ -2974,18 +3770,34 @@
       <c r="A103" s="6" t="n">
         <v>102</v>
       </c>
-      <c r="B103" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G103" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="J103" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" s="1" t="n">
-        <v>1</v>
-      </c>
+      <c r="B103" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C103" s="7"/>
+      <c r="D103" s="7"/>
+      <c r="E103" s="7"/>
+      <c r="F103" s="7"/>
+      <c r="G103" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H103" s="7"/>
+      <c r="I103" s="7"/>
+      <c r="J103" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="K103" s="7"/>
+      <c r="L103" s="7"/>
+      <c r="M103" s="7"/>
+      <c r="N103" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="O103" s="7"/>
+      <c r="P103" s="7"/>
+      <c r="Q103" s="7"/>
+      <c r="R103" s="7"/>
+      <c r="S103" s="7"/>
+      <c r="T103" s="7"/>
+      <c r="U103" s="7"/>
     </row>
     <row r="104" customFormat="false" ht="18.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="4" t="n">
@@ -3024,18 +3836,34 @@
       <c r="A105" s="6" t="n">
         <v>104</v>
       </c>
-      <c r="B105" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G105" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="J105" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" s="1" t="n">
-        <v>1</v>
-      </c>
+      <c r="B105" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C105" s="7"/>
+      <c r="D105" s="7"/>
+      <c r="E105" s="7"/>
+      <c r="F105" s="7"/>
+      <c r="G105" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H105" s="7"/>
+      <c r="I105" s="7"/>
+      <c r="J105" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="K105" s="7"/>
+      <c r="L105" s="7"/>
+      <c r="M105" s="7"/>
+      <c r="N105" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="O105" s="7"/>
+      <c r="P105" s="7"/>
+      <c r="Q105" s="7"/>
+      <c r="R105" s="7"/>
+      <c r="S105" s="7"/>
+      <c r="T105" s="7"/>
+      <c r="U105" s="7"/>
     </row>
     <row r="106" customFormat="false" ht="18.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="4" t="n">
@@ -3074,18 +3902,34 @@
       <c r="A107" s="6" t="n">
         <v>106</v>
       </c>
-      <c r="B107" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G107" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="J107" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" s="1" t="n">
-        <v>1</v>
-      </c>
+      <c r="B107" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C107" s="7"/>
+      <c r="D107" s="7"/>
+      <c r="E107" s="7"/>
+      <c r="F107" s="7"/>
+      <c r="G107" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H107" s="7"/>
+      <c r="I107" s="7"/>
+      <c r="J107" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="K107" s="7"/>
+      <c r="L107" s="7"/>
+      <c r="M107" s="7"/>
+      <c r="N107" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="O107" s="7"/>
+      <c r="P107" s="7"/>
+      <c r="Q107" s="7"/>
+      <c r="R107" s="7"/>
+      <c r="S107" s="7"/>
+      <c r="T107" s="7"/>
+      <c r="U107" s="7"/>
     </row>
     <row r="108" customFormat="false" ht="18.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="4" t="n">
@@ -3122,18 +3966,34 @@
       <c r="A109" s="6" t="n">
         <v>108</v>
       </c>
-      <c r="B109" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G109" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="J109" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" s="1" t="n">
-        <v>1</v>
-      </c>
+      <c r="B109" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C109" s="7"/>
+      <c r="D109" s="7"/>
+      <c r="E109" s="7"/>
+      <c r="F109" s="7"/>
+      <c r="G109" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H109" s="7"/>
+      <c r="I109" s="7"/>
+      <c r="J109" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="K109" s="7"/>
+      <c r="L109" s="7"/>
+      <c r="M109" s="7"/>
+      <c r="N109" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="O109" s="7"/>
+      <c r="P109" s="7"/>
+      <c r="Q109" s="7"/>
+      <c r="R109" s="7"/>
+      <c r="S109" s="7"/>
+      <c r="T109" s="7"/>
+      <c r="U109" s="7"/>
     </row>
     <row r="110" customFormat="false" ht="18.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="4" t="n">
@@ -3172,18 +4032,34 @@
       <c r="A111" s="6" t="n">
         <v>110</v>
       </c>
-      <c r="B111" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G111" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="J111" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" s="1" t="n">
-        <v>1</v>
-      </c>
+      <c r="B111" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C111" s="7"/>
+      <c r="D111" s="7"/>
+      <c r="E111" s="7"/>
+      <c r="F111" s="7"/>
+      <c r="G111" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H111" s="7"/>
+      <c r="I111" s="7"/>
+      <c r="J111" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="K111" s="7"/>
+      <c r="L111" s="7"/>
+      <c r="M111" s="7"/>
+      <c r="N111" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="O111" s="7"/>
+      <c r="P111" s="7"/>
+      <c r="Q111" s="7"/>
+      <c r="R111" s="7"/>
+      <c r="S111" s="7"/>
+      <c r="T111" s="7"/>
+      <c r="U111" s="7"/>
     </row>
     <row r="112" customFormat="false" ht="18.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="4" t="n">
@@ -3212,139 +4088,27 @@
       <c r="T112" s="5"/>
       <c r="U112" s="5"/>
     </row>
-    <row r="113" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="7"/>
-    </row>
-    <row r="114" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="7"/>
-    </row>
-    <row r="115" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="7"/>
-    </row>
-    <row r="116" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="7"/>
-    </row>
-    <row r="117" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="7"/>
-    </row>
-    <row r="118" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="7"/>
-    </row>
-    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="120" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="7"/>
-      <c r="B120" s="8"/>
-      <c r="C120" s="8"/>
-      <c r="D120" s="8"/>
-      <c r="E120" s="8"/>
-      <c r="F120" s="8"/>
-      <c r="G120" s="8"/>
-      <c r="H120" s="8"/>
-      <c r="I120" s="8"/>
-      <c r="J120" s="8"/>
-      <c r="K120" s="8"/>
-      <c r="L120" s="8"/>
-      <c r="M120" s="8"/>
-      <c r="N120" s="8"/>
-      <c r="O120" s="8"/>
-      <c r="P120" s="8"/>
-      <c r="Q120" s="8"/>
-      <c r="R120" s="8"/>
-      <c r="S120" s="8"/>
-      <c r="T120" s="8"/>
-      <c r="U120" s="8"/>
-    </row>
-    <row r="121" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="7"/>
-      <c r="B121" s="8"/>
-      <c r="C121" s="8"/>
-      <c r="D121" s="8"/>
-      <c r="E121" s="8"/>
-      <c r="F121" s="8"/>
-      <c r="G121" s="8"/>
-      <c r="H121" s="8"/>
-      <c r="I121" s="8"/>
-      <c r="J121" s="8"/>
-      <c r="K121" s="8"/>
-      <c r="L121" s="8"/>
-      <c r="M121" s="8"/>
-      <c r="N121" s="8"/>
-      <c r="O121" s="8"/>
-      <c r="P121" s="8"/>
-      <c r="Q121" s="8"/>
-      <c r="R121" s="8"/>
-      <c r="S121" s="8"/>
-      <c r="T121" s="8"/>
-      <c r="U121" s="8"/>
-    </row>
-    <row r="122" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="7"/>
-      <c r="B122" s="8"/>
-      <c r="C122" s="8"/>
-      <c r="D122" s="8"/>
-      <c r="E122" s="8"/>
-      <c r="F122" s="8"/>
-      <c r="G122" s="8"/>
-      <c r="H122" s="8"/>
-      <c r="I122" s="8"/>
-      <c r="J122" s="8"/>
-      <c r="K122" s="8"/>
-      <c r="L122" s="8"/>
-      <c r="M122" s="8"/>
-      <c r="N122" s="8"/>
-      <c r="O122" s="8"/>
-      <c r="P122" s="8"/>
-      <c r="Q122" s="8"/>
-      <c r="R122" s="8"/>
-      <c r="S122" s="8"/>
-      <c r="T122" s="8"/>
-      <c r="U122" s="8"/>
-    </row>
-    <row r="123" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="7"/>
-      <c r="B123" s="8"/>
-      <c r="C123" s="8"/>
-      <c r="D123" s="8"/>
-      <c r="E123" s="8"/>
-      <c r="F123" s="8"/>
-      <c r="G123" s="8"/>
-      <c r="H123" s="8"/>
-      <c r="I123" s="8"/>
-      <c r="J123" s="8"/>
-      <c r="K123" s="8"/>
-      <c r="L123" s="8"/>
-      <c r="M123" s="8"/>
-      <c r="N123" s="8"/>
-      <c r="O123" s="8"/>
-      <c r="P123" s="8"/>
-      <c r="Q123" s="8"/>
-      <c r="R123" s="8"/>
-      <c r="S123" s="8"/>
-      <c r="T123" s="8"/>
-      <c r="U123" s="8"/>
-    </row>
-    <row r="124" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="7"/>
-      <c r="B124" s="8"/>
-      <c r="C124" s="8"/>
-      <c r="D124" s="8"/>
-      <c r="E124" s="8"/>
-      <c r="F124" s="8"/>
-      <c r="G124" s="8"/>
-      <c r="H124" s="8"/>
-      <c r="I124" s="8"/>
-      <c r="J124" s="8"/>
-      <c r="K124" s="8"/>
-      <c r="L124" s="8"/>
-      <c r="M124" s="8"/>
-      <c r="N124" s="8"/>
-      <c r="O124" s="8"/>
-      <c r="P124" s="8"/>
-      <c r="Q124" s="8"/>
-      <c r="R124" s="8"/>
-      <c r="S124" s="8"/>
-      <c r="T124" s="8"/>
-      <c r="U124" s="8"/>
+    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B113" s="0"/>
+      <c r="C113" s="0"/>
+      <c r="D113" s="0"/>
+      <c r="E113" s="0"/>
+      <c r="F113" s="0"/>
+      <c r="G113" s="0"/>
+      <c r="H113" s="0"/>
+      <c r="I113" s="0"/>
+      <c r="J113" s="0"/>
+      <c r="K113" s="0"/>
+      <c r="L113" s="0"/>
+      <c r="M113" s="0"/>
+      <c r="N113" s="0"/>
+      <c r="O113" s="0"/>
+      <c r="P113" s="0"/>
+      <c r="Q113" s="0"/>
+      <c r="R113" s="0"/>
+      <c r="S113" s="0"/>
+      <c r="T113" s="0"/>
+      <c r="U113" s="0"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
